--- a/Multirun_SuggestUsersForChat_run1/results_of_Multirun_SuggestUsersForChat_run1.xlsx
+++ b/Multirun_SuggestUsersForChat_run1/results_of_Multirun_SuggestUsersForChat_run1.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+  <si>
+    <t>all</t>
+  </si>
   <si>
     <t>TG_1</t>
   </si>
@@ -119,6 +122,9 @@
     <t>users_count</t>
   </si>
   <si>
+    <t>all active</t>
+  </si>
+  <si>
     <t>TG_1active</t>
   </si>
   <si>
@@ -157,6 +163,18 @@
   <si>
     <t>inf</t>
   </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>women active</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>men active</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +193,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="125">
     <fill>
       <patternFill/>
     </fill>
@@ -184,112 +202,522 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFF82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF7E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF94"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF92"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF5E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFAB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF4C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF5A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF83"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFD6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF06"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFD2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF68"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF2B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF05"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFE2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF86"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF0B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF72"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF73"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF6A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFF4E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF5F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF5D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF5E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF69"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF4A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF61"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF93"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF70"/>
+        <fgColor rgb="00FFFF9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFAE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFA5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF8D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF3B"/>
       </patternFill>
     </fill>
     <fill>
@@ -299,137 +727,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF8C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF87"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF74"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF82"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF3D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF25"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF35"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF3A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF4F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF3B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFA8"/>
+        <fgColor rgb="00FFFFD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFAF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFB5"/>
       </patternFill>
     </fill>
     <fill>
@@ -439,62 +802,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF96"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFAF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFA2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF95"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF77"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF8D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF0C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFA3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF90"/>
+        <fgColor rgb="00FFFFDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFDC"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,74 +835,134 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="27" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="28" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="29" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="22" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="30" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="31" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="32" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="33" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="34" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="35" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="23" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="31" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="32" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="34" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="35" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="26" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="36" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="37" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="46" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="38" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="26" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="47" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="39" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="27" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="48" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="40" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="28" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="41" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="29" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="49" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="50" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="51" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="42" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="52" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="43" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="52" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="53" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="54" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="44" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="54" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="55" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="45" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="55" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="46" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="56" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="57" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="47" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="58" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="48" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="59" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="49" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="70" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="60" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="71" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="61" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="50" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="72" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="62" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="73" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="74" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="63" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="64" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="51" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="75" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="76" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="65" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="77" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="66" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="67" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="68" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="78" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="79" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="80" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="69" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="81" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="82" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="83" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="88" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="89" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="90" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="84" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="91" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="92" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="93" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="85" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="94" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="95" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="96" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="86" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="87" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="97" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="107" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="111" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="98" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="108" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="99" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="109" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="101" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="100" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="110" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="113" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="102" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="103" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="114" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="104" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="115" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="112" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="105" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="106" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="116" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="117" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="119" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="120" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="121" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="122" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="118" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="123" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="124" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -882,7 +1260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M50"/>
+  <dimension ref="A2:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,46 +1269,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>3.97621407333994</v>
@@ -939,10 +1320,10 @@
         <v>3.86964795432921</v>
       </c>
       <c r="D3" t="n">
-        <v>3.452298954745937</v>
+        <v>3.633037694013304</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.08610841425567939</v>
+        <v>0.05994420123902211</v>
       </c>
       <c r="F3" t="n">
         <v>2.211430459200529</v>
@@ -951,10 +1332,10 @@
         <v>2.71360608943863</v>
       </c>
       <c r="H3" t="n">
-        <v>2.900187299861035</v>
+        <v>3.572062084257206</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>-0.2121439797140771</v>
+        <v>-0.2963578737882194</v>
       </c>
       <c r="J3" t="n">
         <v>1.158572844400396</v>
@@ -963,15 +1344,15 @@
         <v>1.80209324452902</v>
       </c>
       <c r="L3" t="n">
-        <v>1.078545103014924</v>
+        <v>1.058511948755851</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>-0.1956138156751226</v>
+        <v>-0.1899806047195267</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1012,7 +1393,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>0.2652791542781632</v>
@@ -1021,10 +1402,10 @@
         <v>0.2530922930542341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2680804785209353</v>
+        <v>0.2419315102241932</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.01800849448214747</v>
+        <v>0.07178342746866395</v>
       </c>
       <c r="F5" t="n">
         <v>0.1807069705979518</v>
@@ -1033,10 +1414,10 @@
         <v>0.1731684110371075</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1819225424445653</v>
+        <v>0.1720867208672087</v>
       </c>
       <c r="I5" s="9" t="n">
-        <v>0.01780667080429321</v>
+        <v>0.04680251732236562</v>
       </c>
       <c r="J5" t="n">
         <v>0.1172778328377932</v>
@@ -1045,15 +1426,15 @@
         <v>0.1236917221693625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1167905262521902</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>-0.02464457474456638</v>
+        <v>0.1106183789110618</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0.001048032475039262</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>43.83217707300958</v>
@@ -1062,10 +1443,10 @@
         <v>36.12749762131303</v>
       </c>
       <c r="D6" t="n">
-        <v>40.09443538154795</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>0.1501197974437187</v>
+        <v>37.8030303030303</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0.1857666461644953</v>
       </c>
       <c r="F6" t="n">
         <v>16.09184010571523</v>
@@ -1074,10 +1455,10 @@
         <v>21.93529971455757</v>
       </c>
       <c r="H6" t="n">
-        <v>14.65403903087427</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>-0.1204082578439989</v>
+        <v>13.06331608770633</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>-0.08042991204958905</v>
       </c>
       <c r="J6" t="n">
         <v>6.578130161876445</v>
@@ -1086,15 +1467,15 @@
         <v>10.46907706945766</v>
       </c>
       <c r="L6" t="n">
-        <v>5.752220409642922</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>-0.1889514176838607</v>
+        <v>5.966740576496674</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>-0.1995372176089276</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1135,7 +1516,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>0.4823257350512058</v>
@@ -1144,10 +1525,10 @@
         <v>0.4757373929590866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4746540994501843</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>0.01500431959569748</v>
+        <v>0.4556541019955654</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.03570998374789647</v>
       </c>
       <c r="F8" t="n">
         <v>0.1301618764453254</v>
@@ -1156,10 +1537,10 @@
         <v>0.1141769743101808</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1156425593619721</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>0.1327311857747195</v>
+        <v>0.1155457009115546</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>0.1332087815857896</v>
       </c>
       <c r="J8" t="n">
         <v>0.08655434423521638</v>
@@ -1168,15 +1549,15 @@
         <v>0.0922930542340628</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07069059271343121</v>
-      </c>
-      <c r="M8" s="16" t="n">
-        <v>0.06212305168383292</v>
+        <v>0.07489529440748953</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0.03541119866895448</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>16.5180046250413</v>
@@ -1185,10 +1566,10 @@
         <v>16.73739295908658</v>
       </c>
       <c r="D9" t="n">
-        <v>15.90677300465229</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>0.01200347059805362</v>
+        <v>17.07033752155703</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>-0.02282676830386066</v>
       </c>
       <c r="F9" t="n">
         <v>9.754542451271886</v>
@@ -1197,10 +1578,10 @@
         <v>9.568030447193149</v>
       </c>
       <c r="H9" t="n">
-        <v>11.13352667512537</v>
-      </c>
-      <c r="I9" s="18" t="n">
-        <v>-0.05760302052298916</v>
+        <v>11.00689825080069</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>-0.05180303713781487</v>
       </c>
       <c r="J9" t="n">
         <v>6.067723818962669</v>
@@ -1209,15 +1590,15 @@
         <v>5.299714557564225</v>
       </c>
       <c r="L9" t="n">
-        <v>6.751253700682738</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0.007010173611615267</v>
+        <v>5.941857600394186</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>0.07951516633143818</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -1258,7 +1639,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
         <v>0.9065080938222663</v>
@@ -1267,10 +1648,10 @@
         <v>0.9238820171265462</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8623648117938493</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>0.01498637158690808</v>
+        <v>0.9134023158413402</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>-0.01320870422062115</v>
       </c>
       <c r="F11" t="n">
         <v>0.3666997026759167</v>
@@ -1279,10 +1660,10 @@
         <v>0.3577545195052331</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3460818077457555</v>
+        <v>0.3622813500862281</v>
       </c>
       <c r="I11" s="19" t="n">
-        <v>0.04200277387828355</v>
+        <v>0.01855954171832375</v>
       </c>
       <c r="J11" t="n">
         <v>0.3072348860257681</v>
@@ -1291,15 +1672,15 @@
         <v>0.2949571836346337</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2932753307957223</v>
-      </c>
-      <c r="M11" s="20" t="n">
-        <v>0.04460354872866623</v>
+        <v>0.2961320522296132</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0.03955500247454857</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>5.544763792533862</v>
@@ -1308,10 +1689,10 @@
         <v>6.884871550903901</v>
       </c>
       <c r="D12" t="n">
-        <v>5.643888586792339</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>-0.1148743001550636</v>
+        <v>5.386178861788617</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>-0.09628538616406379</v>
       </c>
       <c r="F12" t="n">
         <v>4.331351172778328</v>
@@ -1320,10 +1701,10 @@
         <v>4.202664129400571</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65863089843514</v>
-      </c>
-      <c r="I12" s="22" t="n">
-        <v>0.1019434221566902</v>
+        <v>3.434220251293422</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>0.1343241449950359</v>
       </c>
       <c r="J12" t="n">
         <v>2.006276841757516</v>
@@ -1332,15 +1713,15 @@
         <v>2.704091341579448</v>
       </c>
       <c r="L12" t="n">
-        <v>1.740076128330615</v>
-      </c>
-      <c r="M12" s="23" t="n">
-        <v>-0.09711915433370599</v>
+        <v>1.678492239467849</v>
+      </c>
+      <c r="M12" s="21" t="n">
+        <v>-0.08443190887048424</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1381,7 +1762,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
         <v>0.201189296333003</v>
@@ -1390,10 +1771,10 @@
         <v>0.1684110371075166</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1935230499667694</v>
-      </c>
-      <c r="E14" s="24" t="n">
-        <v>0.1117455001783758</v>
+        <v>0.1568120226656812</v>
+      </c>
+      <c r="E14" s="22" t="n">
+        <v>0.2372388137133152</v>
       </c>
       <c r="F14" t="n">
         <v>0.1318136769078295</v>
@@ -1402,10 +1783,10 @@
         <v>0.09705042816365367</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1015648601292973</v>
-      </c>
-      <c r="I14" s="25" t="n">
-        <v>0.3273265924364162</v>
+        <v>0.09595959595959595</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>0.3658738970330142</v>
       </c>
       <c r="J14" t="n">
         <v>0.08787578460521969</v>
@@ -1414,15 +1795,15 @@
         <v>0.07040913415794481</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06579662860250136</v>
-      </c>
-      <c r="M14" s="26" t="n">
-        <v>0.29033871730923</v>
+        <v>0.06577974870657798</v>
+      </c>
+      <c r="M14" s="24" t="n">
+        <v>0.290498648008388</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
         <v>6.526924347538817</v>
@@ -1431,10 +1812,10 @@
         <v>6.882968601332065</v>
       </c>
       <c r="D15" t="n">
-        <v>6.781886290858559</v>
-      </c>
-      <c r="E15" s="27" t="n">
-        <v>-0.04471369816463799</v>
+        <v>6.25930032027593</v>
+      </c>
+      <c r="E15" s="25" t="n">
+        <v>-0.006727927046522586</v>
       </c>
       <c r="F15" t="n">
         <v>5.05616121572514</v>
@@ -1443,10 +1824,10 @@
         <v>4.577545195052331</v>
       </c>
       <c r="H15" t="n">
-        <v>4.021811370914144</v>
-      </c>
-      <c r="I15" s="28" t="n">
-        <v>0.1759394268487067</v>
+        <v>4.032027593003202</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>0.1745440430539809</v>
       </c>
       <c r="J15" t="n">
         <v>2.160555004955401</v>
@@ -1455,15 +1836,15 @@
         <v>2.445290199809705</v>
       </c>
       <c r="L15" t="n">
-        <v>1.724729623587699</v>
-      </c>
-      <c r="M15" s="29" t="n">
-        <v>0.03623248639386634</v>
+        <v>1.635747721113575</v>
+      </c>
+      <c r="M15" s="26" t="n">
+        <v>0.05882623333556514</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1504,7 +1885,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
         <v>0.351172778328378</v>
@@ -1513,10 +1894,10 @@
         <v>0.2445290199809705</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2329164400942541</v>
-      </c>
-      <c r="E17" s="30" t="n">
-        <v>0.4710487697298384</v>
+        <v>0.2014042867701404</v>
+      </c>
+      <c r="E17" s="27" t="n">
+        <v>0.5750013421822211</v>
       </c>
       <c r="F17" t="n">
         <v>0.3326726131483317</v>
@@ -1525,10 +1906,10 @@
         <v>0.2121788772597526</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1512899522687451</v>
-      </c>
-      <c r="I17" s="30" t="n">
-        <v>0.8305427377631489</v>
+        <v>0.1358709041635871</v>
+      </c>
+      <c r="I17" s="27" t="n">
+        <v>0.9116381098581727</v>
       </c>
       <c r="J17" t="n">
         <v>0.1949124545754873</v>
@@ -1537,15 +1918,15 @@
         <v>0.1617507136060894</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1022898918494351</v>
-      </c>
-      <c r="M17" s="30" t="n">
-        <v>0.4763824241292212</v>
+        <v>0.09251047055925105</v>
+      </c>
+      <c r="M17" s="27" t="n">
+        <v>0.5331672053311918</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>1.150313842087876</v>
@@ -1554,10 +1935,10 @@
         <v>1.228353948620362</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9145066763337563</v>
-      </c>
-      <c r="E18" s="31" t="n">
-        <v>0.07362450799851317</v>
+        <v>0.9724069967972407</v>
+      </c>
+      <c r="E18" s="28" t="n">
+        <v>0.04537827653025683</v>
       </c>
       <c r="F18" t="n">
         <v>0.6461843409316155</v>
@@ -1566,10 +1947,10 @@
         <v>0.7535680304471931</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6471512295329588</v>
-      </c>
-      <c r="I18" s="32" t="n">
-        <v>-0.0773535291564823</v>
+        <v>0.5415126878541513</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>-0.002094106104575943</v>
       </c>
       <c r="J18" t="n">
         <v>0.3871820284109679</v>
@@ -1578,15 +1959,15 @@
         <v>0.5746907706945766</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3519424808168691</v>
-      </c>
-      <c r="M18" s="33" t="n">
-        <v>-0.1643252003326464</v>
+        <v>0.3072185267307219</v>
+      </c>
+      <c r="M18" s="29" t="n">
+        <v>-0.1219459199685692</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1627,7 +2008,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
         <v>0.1562603237528906</v>
@@ -1636,10 +2017,10 @@
         <v>0.1351094196003806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1466376653978612</v>
-      </c>
-      <c r="E20" s="34" t="n">
-        <v>0.1092240670661475</v>
+        <v>0.1160384331116038</v>
+      </c>
+      <c r="E20" s="30" t="n">
+        <v>0.2443691798718224</v>
       </c>
       <c r="F20" t="n">
         <v>0.1162867525602907</v>
@@ -1648,10 +2029,10 @@
         <v>0.08563273073263558</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09195818983747206</v>
-      </c>
-      <c r="I20" s="35" t="n">
-        <v>0.3096024525013277</v>
+        <v>0.08043853165804385</v>
+      </c>
+      <c r="I20" s="31" t="n">
+        <v>0.4004440128446594</v>
       </c>
       <c r="J20" t="n">
         <v>0.07201850016518005</v>
@@ -1660,15 +2041,15 @@
         <v>0.05994291151284491</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06295692103196182</v>
-      </c>
-      <c r="M20" s="36" t="n">
-        <v>0.1719869535041652</v>
+        <v>0.05580192165558019</v>
+      </c>
+      <c r="M20" s="32" t="n">
+        <v>0.2444356813816984</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
         <v>1.257680872150644</v>
@@ -1677,10 +2058,10 @@
         <v>1.303520456707897</v>
       </c>
       <c r="D21" t="n">
-        <v>1.233762310434415</v>
-      </c>
-      <c r="E21" s="37" t="n">
-        <v>-0.008639566360084006</v>
+        <v>1.068736141906874</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0.06032447997829604</v>
       </c>
       <c r="F21" t="n">
         <v>0.8470432771721176</v>
@@ -1689,10 +2070,10 @@
         <v>0.8353948620361561</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8462932753307957</v>
-      </c>
-      <c r="I21" s="38" t="n">
-        <v>0.007372601793276479</v>
+        <v>0.8965262379896526</v>
+      </c>
+      <c r="I21" s="33" t="n">
+        <v>-0.02184542106508769</v>
       </c>
       <c r="J21" t="n">
         <v>0.5470763131813677</v>
@@ -1701,15 +2082,15 @@
         <v>0.4938154138915319</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3526070932269953</v>
-      </c>
-      <c r="M21" s="39" t="n">
-        <v>0.292679031052181</v>
+        <v>0.295269770879527</v>
+      </c>
+      <c r="M21" s="34" t="n">
+        <v>0.3866090093684718</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1750,7 +2131,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
         <v>0.1978856954079947</v>
@@ -1759,10 +2140,10 @@
         <v>0.170313986679353</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1857893782853</v>
-      </c>
-      <c r="E23" s="24" t="n">
-        <v>0.111394695344353</v>
+        <v>0.1538556294653856</v>
+      </c>
+      <c r="E23" s="35" t="n">
+        <v>0.220877500867575</v>
       </c>
       <c r="F23" t="n">
         <v>0.1552692434753882</v>
@@ -1771,10 +2152,10 @@
         <v>0.1655566127497621</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1172134614222706</v>
-      </c>
-      <c r="I23" s="40" t="n">
-        <v>0.09820138449958393</v>
+        <v>0.09866962305986696</v>
+      </c>
+      <c r="I23" s="13" t="n">
+        <v>0.1752749911424938</v>
       </c>
       <c r="J23" t="n">
         <v>0.1242153947803105</v>
@@ -1783,15 +2164,15 @@
         <v>0.1255946717411989</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07890761887499245</v>
-      </c>
-      <c r="M23" s="41" t="n">
-        <v>0.2148068797276923</v>
+        <v>0.06713476225671347</v>
+      </c>
+      <c r="M23" s="24" t="n">
+        <v>0.2890132265075407</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>3027</v>
@@ -1800,10 +2181,10 @@
         <v>1051</v>
       </c>
       <c r="D24" t="n">
-        <v>16551</v>
-      </c>
-      <c r="E24" s="42" t="n">
-        <v>-0.6560618111578229</v>
+        <v>8118</v>
+      </c>
+      <c r="E24" s="36" t="n">
+        <v>-0.3397317046569964</v>
       </c>
       <c r="F24" t="n">
         <v>3027</v>
@@ -1812,10 +2193,10 @@
         <v>1051</v>
       </c>
       <c r="H24" t="n">
-        <v>16551</v>
-      </c>
-      <c r="I24" s="42" t="n">
-        <v>-0.6560618111578229</v>
+        <v>8118</v>
+      </c>
+      <c r="I24" s="36" t="n">
+        <v>-0.3397317046569964</v>
       </c>
       <c r="J24" t="n">
         <v>3027</v>
@@ -1824,53 +2205,56 @@
         <v>1051</v>
       </c>
       <c r="L24" t="n">
-        <v>16551</v>
-      </c>
-      <c r="M24" s="42" t="n">
-        <v>-0.6560618111578229</v>
+        <v>8118</v>
+      </c>
+      <c r="M24" s="36" t="n">
+        <v>-0.3397317046569964</v>
       </c>
     </row>
     <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="n">
         <v>4.149352920601609</v>
@@ -1879,10 +2263,10 @@
         <v>4.090355329949238</v>
       </c>
       <c r="D29" t="n">
-        <v>3.868885632544833</v>
-      </c>
-      <c r="E29" s="43" t="n">
-        <v>0.04265040853880286</v>
+        <v>3.857104665151718</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0.0441959879406475</v>
       </c>
       <c r="F29" t="n">
         <v>6.625752105896511</v>
@@ -1891,10 +2275,10 @@
         <v>9.80078125</v>
       </c>
       <c r="H29" t="n">
-        <v>10.90289308176101</v>
-      </c>
-      <c r="I29" s="44" t="n">
-        <v>-0.3599443268162208</v>
+        <v>13.46348733233979</v>
+      </c>
+      <c r="I29" s="36" t="n">
+        <v>-0.4303923991896994</v>
       </c>
       <c r="J29" t="n">
         <v>5.47603305785124</v>
@@ -1903,15 +2287,15 @@
         <v>8.979695431472081</v>
       </c>
       <c r="L29" t="n">
-        <v>5.74237047551455</v>
-      </c>
-      <c r="M29" s="42" t="n">
-        <v>-0.2560781764667299</v>
+        <v>5.472354948805461</v>
+      </c>
+      <c r="M29" s="36" t="n">
+        <v>-0.2421790799561168</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1922,7 +2306,7 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="37" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
@@ -1934,7 +2318,7 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="45" t="n">
+      <c r="I30" s="38" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
@@ -1946,13 +2330,13 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="42" t="n">
+      <c r="M30" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
         <v>0.2693249387897866</v>
@@ -1961,10 +2345,10 @@
         <v>0.2588832487309645</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2945363198660247</v>
-      </c>
-      <c r="E31" s="46" t="n">
-        <v>-0.02668805343269576</v>
+        <v>0.2546451009223366</v>
+      </c>
+      <c r="E31" s="39" t="n">
+        <v>0.04891945681914645</v>
       </c>
       <c r="F31" t="n">
         <v>0.4283995186522263</v>
@@ -1973,10 +2357,10 @@
         <v>0.4375</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4654088050314465</v>
-      </c>
-      <c r="I31" s="47" t="n">
-        <v>-0.05106802311600911</v>
+        <v>0.4540486835568803</v>
+      </c>
+      <c r="I31" s="40" t="n">
+        <v>-0.03897672319338996</v>
       </c>
       <c r="J31" t="n">
         <v>0.3884297520661157</v>
@@ -1985,15 +2369,15 @@
         <v>0.4365482233502538</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4173172462739532</v>
-      </c>
-      <c r="M31" s="42" t="n">
-        <v>-0.09018512661703781</v>
+        <v>0.4122866894197952</v>
+      </c>
+      <c r="M31" s="36" t="n">
+        <v>-0.08479317657062002</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
         <v>45.81951731374607</v>
@@ -2002,10 +2386,10 @@
         <v>37.92182741116751</v>
       </c>
       <c r="D32" t="n">
-        <v>45.02651594445607</v>
-      </c>
-      <c r="E32" s="48" t="n">
-        <v>0.1047723308301534</v>
+        <v>40.34915118299693</v>
+      </c>
+      <c r="E32" s="41" t="n">
+        <v>0.1707919879556019</v>
       </c>
       <c r="F32" t="n">
         <v>56.98315282791817</v>
@@ -2014,10 +2398,10 @@
         <v>87.4453125</v>
       </c>
       <c r="H32" t="n">
-        <v>58.49308176100629</v>
-      </c>
-      <c r="I32" s="49" t="n">
-        <v>-0.2190793503455223</v>
+        <v>50.94883258817685</v>
+      </c>
+      <c r="I32" s="42" t="n">
+        <v>-0.1765091970962824</v>
       </c>
       <c r="J32" t="n">
         <v>32.79834710743802</v>
@@ -2026,15 +2410,15 @@
         <v>55.43147208121827</v>
       </c>
       <c r="L32" t="n">
-        <v>33.09332860184528</v>
-      </c>
-      <c r="M32" s="42" t="n">
-        <v>-0.2590020682483625</v>
+        <v>32.50716723549488</v>
+      </c>
+      <c r="M32" s="36" t="n">
+        <v>-0.2540628928925323</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2043,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="42" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="37" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2057,7 +2441,7 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="45" t="n">
+      <c r="I33" s="38" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
@@ -2069,13 +2453,13 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" s="42" t="n">
+      <c r="M33" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" t="n">
         <v>0.4858342077649528</v>
@@ -2084,10 +2468,10 @@
         <v>0.4812182741116751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5188053869234527</v>
-      </c>
-      <c r="E34" s="46" t="n">
-        <v>-0.02835457460663648</v>
+        <v>0.4754711936906831</v>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>0.01565706347949658</v>
       </c>
       <c r="F34" t="n">
         <v>0.4548736462093863</v>
@@ -2096,10 +2480,10 @@
         <v>0.4453125</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4513207547169811</v>
-      </c>
-      <c r="I34" s="32" t="n">
-        <v>0.01462586585184256</v>
+        <v>0.4475906607054148</v>
+      </c>
+      <c r="I34" s="9" t="n">
+        <v>0.01886445524512492</v>
       </c>
       <c r="J34" t="n">
         <v>0.4231404958677686</v>
@@ -2108,15 +2492,15 @@
         <v>0.4822335025380711</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3988644428672818</v>
-      </c>
-      <c r="M34" s="42" t="n">
-        <v>-0.03951541806603354</v>
+        <v>0.4040955631399317</v>
+      </c>
+      <c r="M34" s="36" t="n">
+        <v>-0.04518420470824858</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="n">
         <v>16.59671213711088</v>
@@ -2125,10 +2509,10 @@
         <v>17.25177664974619</v>
       </c>
       <c r="D35" t="n">
-        <v>17.3553136557114</v>
-      </c>
-      <c r="E35" s="50" t="n">
-        <v>-0.04084902887697839</v>
+        <v>17.69148509557546</v>
+      </c>
+      <c r="E35" s="44" t="n">
+        <v>-0.05007653503709253</v>
       </c>
       <c r="F35" t="n">
         <v>26.34175691937425</v>
@@ -2137,10 +2521,10 @@
         <v>28.0703125</v>
       </c>
       <c r="H35" t="n">
-        <v>32.86238993710692</v>
-      </c>
-      <c r="I35" s="51" t="n">
-        <v>-0.1353819585939589</v>
+        <v>34.09935419771485</v>
+      </c>
+      <c r="I35" s="45" t="n">
+        <v>-0.1525849077668456</v>
       </c>
       <c r="J35" t="n">
         <v>23.72231404958678</v>
@@ -2149,15 +2533,15 @@
         <v>21.76649746192894</v>
       </c>
       <c r="L35" t="n">
-        <v>26.78317955997161</v>
-      </c>
-      <c r="M35" s="42" t="n">
-        <v>-0.02276120029034412</v>
+        <v>25.05255972696246</v>
+      </c>
+      <c r="M35" s="36" t="n">
+        <v>0.01336145894092433</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -2168,7 +2552,7 @@
       <c r="D36" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E36" s="37" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
@@ -2180,7 +2564,7 @@
       <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" s="52" t="n">
+      <c r="I36" s="46" t="n">
         <v>-0.3333333333333334</v>
       </c>
       <c r="J36" t="n">
@@ -2192,13 +2576,13 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" s="42" t="n">
+      <c r="M36" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="n">
         <v>0.9090591115774747</v>
@@ -2207,10 +2591,10 @@
         <v>0.9279187817258884</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9265927011373944</v>
-      </c>
-      <c r="E37" s="53" t="n">
-        <v>-0.0196241759863055</v>
+        <v>0.9351690950407699</v>
+      </c>
+      <c r="E37" s="18" t="n">
+        <v>-0.02413716184432091</v>
       </c>
       <c r="F37" t="n">
         <v>0.5728038507821901</v>
@@ -2219,10 +2603,10 @@
         <v>0.59765625</v>
       </c>
       <c r="H37" t="n">
-        <v>0.599748427672956</v>
-      </c>
-      <c r="I37" s="54" t="n">
-        <v>-0.04325770315950206</v>
+        <v>0.61698956780924</v>
+      </c>
+      <c r="I37" s="47" t="n">
+        <v>-0.05683806360061261</v>
       </c>
       <c r="J37" t="n">
         <v>0.5818181818181818</v>
@@ -2231,15 +2615,15 @@
         <v>0.5583756345177665</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5947480482611781</v>
-      </c>
-      <c r="M37" s="42" t="n">
-        <v>0.009116698420488678</v>
+        <v>0.6075085324232082</v>
+      </c>
+      <c r="M37" s="36" t="n">
+        <v>-0.001927981671205781</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" t="n">
         <v>5.825813221406086</v>
@@ -2248,10 +2632,10 @@
         <v>7.311675126903554</v>
       </c>
       <c r="D38" t="n">
-        <v>6.395366687600307</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>-0.1499532429759415</v>
+        <v>5.791605400347547</v>
+      </c>
+      <c r="E38" s="48" t="n">
+        <v>-0.1107855457585526</v>
       </c>
       <c r="F38" t="n">
         <v>15.11070998796631</v>
@@ -2260,10 +2644,10 @@
         <v>16.8046875</v>
       </c>
       <c r="H38" t="n">
-        <v>14.81232704402516</v>
-      </c>
-      <c r="I38" s="54" t="n">
-        <v>-0.04414061821520965</v>
+        <v>13.50124192747144</v>
+      </c>
+      <c r="I38" s="49" t="n">
+        <v>-0.002788545117583974</v>
       </c>
       <c r="J38" t="n">
         <v>9.978512396694216</v>
@@ -2272,15 +2656,15 @@
         <v>14.28426395939086</v>
       </c>
       <c r="L38" t="n">
-        <v>10.11213626685593</v>
-      </c>
-      <c r="M38" s="42" t="n">
-        <v>-0.1819684622193676</v>
+        <v>9.219795221843004</v>
+      </c>
+      <c r="M38" s="36" t="n">
+        <v>-0.1509115664020052</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2291,7 +2675,7 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" s="11" t="n">
+      <c r="E39" s="37" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
@@ -2303,7 +2687,7 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="45" t="n">
+      <c r="I39" s="38" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
@@ -2315,13 +2699,13 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" s="42" t="n">
+      <c r="M39" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" t="n">
         <v>0.2053165442462399</v>
@@ -2330,10 +2714,10 @@
         <v>0.1746192893401015</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2155467169074035</v>
-      </c>
-      <c r="E40" s="55" t="n">
-        <v>0.05245736921527522</v>
+        <v>0.1662879294212004</v>
+      </c>
+      <c r="E40" s="50" t="n">
+        <v>0.2045303410837978</v>
       </c>
       <c r="F40" t="n">
         <v>0.4608904933814681</v>
@@ -2342,10 +2726,10 @@
         <v>0.390625</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3967295597484277</v>
-      </c>
-      <c r="I40" s="56" t="n">
-        <v>0.1707317565512796</v>
+        <v>0.373571783407849</v>
+      </c>
+      <c r="I40" s="51" t="n">
+        <v>0.2062089330608778</v>
       </c>
       <c r="J40" t="n">
         <v>0.428099173553719</v>
@@ -2354,15 +2738,15 @@
         <v>0.3654822335025381</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3715400993612491</v>
-      </c>
-      <c r="M40" s="42" t="n">
-        <v>0.1616993256915003</v>
+        <v>0.3556313993174061</v>
+      </c>
+      <c r="M40" s="36" t="n">
+        <v>0.18732791634966</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" t="n">
         <v>6.814970269324939</v>
@@ -2371,10 +2755,10 @@
         <v>7.282233502538071</v>
       </c>
       <c r="D41" t="n">
-        <v>7.636592003349382</v>
-      </c>
-      <c r="E41" s="57" t="n">
-        <v>-0.08639319273014756</v>
+        <v>6.6730383638551</v>
+      </c>
+      <c r="E41" s="18" t="n">
+        <v>-0.02331243209433642</v>
       </c>
       <c r="F41" t="n">
         <v>16.45367027677497</v>
@@ -2383,10 +2767,10 @@
         <v>17.02734375</v>
       </c>
       <c r="H41" t="n">
-        <v>15.51698113207547</v>
-      </c>
-      <c r="I41" s="58" t="n">
-        <v>0.01115449998701346</v>
+        <v>15.19423745653254</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>0.02128261001910037</v>
       </c>
       <c r="J41" t="n">
         <v>9.862809917355372</v>
@@ -2395,15 +2779,15 @@
         <v>11.88324873096447</v>
       </c>
       <c r="L41" t="n">
-        <v>9.529098651525905</v>
-      </c>
-      <c r="M41" s="42" t="n">
-        <v>-0.0787735934621967</v>
+        <v>8.63617747440273</v>
+      </c>
+      <c r="M41" s="36" t="n">
+        <v>-0.03868560274111454</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2414,7 +2798,7 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E42" s="37" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
@@ -2426,7 +2810,7 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="30" t="n">
+      <c r="I42" s="27" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
@@ -2438,13 +2822,13 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" s="42" t="s">
-        <v>46</v>
+      <c r="M42" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n">
         <v>0.3522210563133963</v>
@@ -2453,10 +2837,10 @@
         <v>0.250761421319797</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2546228455795129</v>
-      </c>
-      <c r="E43" s="30" t="n">
-        <v>0.3938742433530129</v>
+        <v>0.2106670231252506</v>
+      </c>
+      <c r="E43" s="27" t="n">
+        <v>0.5266551533770605</v>
       </c>
       <c r="F43" t="n">
         <v>0.8856799037304453</v>
@@ -2465,10 +2849,10 @@
         <v>0.5234375</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4020125786163522</v>
-      </c>
-      <c r="I43" s="59" t="n">
-        <v>0.9140522524016257</v>
+        <v>0.3805265772478887</v>
+      </c>
+      <c r="I43" s="52" t="n">
+        <v>0.9595466811621332</v>
       </c>
       <c r="J43" t="n">
         <v>0.5950413223140496</v>
@@ -2477,15 +2861,15 @@
         <v>0.4517766497461929</v>
       </c>
       <c r="L43" t="n">
-        <v>0.361958836053939</v>
-      </c>
-      <c r="M43" s="42" t="n">
-        <v>0.4624932369244186</v>
+        <v>0.3378839590443686</v>
+      </c>
+      <c r="M43" s="36" t="n">
+        <v>0.5070811832070756</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n">
         <v>1.19867086393844</v>
@@ -2494,10 +2878,10 @@
         <v>1.293401015228426</v>
       </c>
       <c r="D44" t="n">
-        <v>1.033354266973693</v>
-      </c>
-      <c r="E44" s="60" t="n">
-        <v>0.0303368584632393</v>
+        <v>1.04371073385911</v>
+      </c>
+      <c r="E44" s="13" t="n">
+        <v>0.02577111634172358</v>
       </c>
       <c r="F44" t="n">
         <v>2.080625752105897</v>
@@ -2506,10 +2890,10 @@
         <v>2.68359375</v>
       </c>
       <c r="H44" t="n">
-        <v>2.55874213836478</v>
-      </c>
-      <c r="I44" s="61" t="n">
-        <v>-0.2062218841323051</v>
+        <v>2.103825136612022</v>
+      </c>
+      <c r="I44" s="11" t="n">
+        <v>-0.1307943585532698</v>
       </c>
       <c r="J44" t="n">
         <v>1.872727272727273</v>
@@ -2518,15 +2902,15 @@
         <v>2.954314720812183</v>
       </c>
       <c r="L44" t="n">
-        <v>1.939318665720369</v>
-      </c>
-      <c r="M44" s="42" t="n">
-        <v>-0.2346270654924487</v>
+        <v>1.643003412969283</v>
+      </c>
+      <c r="M44" s="36" t="n">
+        <v>-0.1852957666921847</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -2537,7 +2921,7 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="n">
+      <c r="E45" s="37" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
@@ -2549,7 +2933,7 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="45" t="n">
+      <c r="I45" s="38" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
@@ -2561,13 +2945,13 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" s="42" t="n">
+      <c r="M45" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="n">
         <v>0.1573976915005247</v>
@@ -2576,10 +2960,10 @@
         <v>0.1401015228426396</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1639801828204591</v>
-      </c>
-      <c r="E46" s="43" t="n">
-        <v>0.03523289016873821</v>
+        <v>0.1236465713139955</v>
+      </c>
+      <c r="E46" s="53" t="n">
+        <v>0.1935456216570735</v>
       </c>
       <c r="F46" t="n">
         <v>0.3922984356197353</v>
@@ -2588,10 +2972,10 @@
         <v>0.328125</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3338364779874214</v>
-      </c>
-      <c r="I46" s="23" t="n">
-        <v>0.1852606191298332</v>
+        <v>0.3050173869846001</v>
+      </c>
+      <c r="I46" s="54" t="n">
+        <v>0.2392107800208838</v>
       </c>
       <c r="J46" t="n">
         <v>0.3388429752066116</v>
@@ -2600,15 +2984,15 @@
         <v>0.2944162436548223</v>
       </c>
       <c r="L46" t="n">
-        <v>0.3101490418736693</v>
-      </c>
-      <c r="M46" s="42" t="n">
-        <v>0.1209475082923623</v>
+        <v>0.2853242320819113</v>
+      </c>
+      <c r="M46" s="36" t="n">
+        <v>0.1689471043953252</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
         <v>1.29800629590766</v>
@@ -2617,10 +3001,10 @@
         <v>1.376649746192893</v>
       </c>
       <c r="D47" t="n">
-        <v>1.36068662340381</v>
-      </c>
-      <c r="E47" s="24" t="n">
-        <v>-0.05162821031096188</v>
+        <v>1.119369068306376</v>
+      </c>
+      <c r="E47" s="55" t="n">
+        <v>0.04006130752508374</v>
       </c>
       <c r="F47" t="n">
         <v>2.280385078219013</v>
@@ -2629,10 +3013,10 @@
         <v>2.44921875</v>
       </c>
       <c r="H47" t="n">
-        <v>2.866163522012579</v>
-      </c>
-      <c r="I47" s="62" t="n">
-        <v>-0.1419676096577023</v>
+        <v>3.123695976154993</v>
+      </c>
+      <c r="I47" s="56" t="n">
+        <v>-0.1816185280867003</v>
       </c>
       <c r="J47" t="n">
         <v>1.952066115702479</v>
@@ -2641,15 +3025,15 @@
         <v>1.629441624365482</v>
       </c>
       <c r="L47" t="n">
-        <v>1.640880056777857</v>
-      </c>
-      <c r="M47" s="42" t="n">
-        <v>0.1938067909087258</v>
+        <v>1.325597269624573</v>
+      </c>
+      <c r="M47" s="36" t="n">
+        <v>0.321177951107569</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -2660,7 +3044,7 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="11" t="n">
+      <c r="E48" s="37" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
@@ -2672,7 +3056,7 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="45" t="n">
+      <c r="I48" s="38" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
@@ -2684,13 +3068,13 @@
       <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="42" t="n">
+      <c r="M48" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" t="n">
         <v>0.1969220006995453</v>
@@ -2699,10 +3083,10 @@
         <v>0.1746192893401015</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202149187076966</v>
-      </c>
-      <c r="E49" s="43" t="n">
-        <v>0.04532100228874003</v>
+        <v>0.1601390188477476</v>
+      </c>
+      <c r="E49" s="31" t="n">
+        <v>0.1765025445704118</v>
       </c>
       <c r="F49" t="n">
         <v>0.3116726835138388</v>
@@ -2711,10 +3095,10 @@
         <v>0.34765625</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2810062893081761</v>
-      </c>
-      <c r="I49" s="63" t="n">
-        <v>-0.008457911753975478</v>
+        <v>0.2518628912071535</v>
+      </c>
+      <c r="I49" s="57" t="n">
+        <v>0.03974222703306696</v>
       </c>
       <c r="J49" t="n">
         <v>0.2826446280991736</v>
@@ -2723,15 +3107,15 @@
         <v>0.2944162436548223</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2473385379701916</v>
-      </c>
-      <c r="M49" s="42" t="n">
-        <v>0.04344119400799884</v>
+        <v>0.2177474402730376</v>
+      </c>
+      <c r="M49" s="36" t="n">
+        <v>0.1037277220888826</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" t="n">
         <v>2859</v>
@@ -2740,10 +3124,10 @@
         <v>985</v>
       </c>
       <c r="D50" t="n">
-        <v>14331</v>
-      </c>
-      <c r="E50" s="64" t="n">
-        <v>-0.6266649255680334</v>
+        <v>7481</v>
+      </c>
+      <c r="E50" s="36" t="n">
+        <v>-0.3245924875974486</v>
       </c>
       <c r="F50" t="n">
         <v>831</v>
@@ -2752,10 +3136,10 @@
         <v>256</v>
       </c>
       <c r="H50" t="n">
-        <v>3975</v>
-      </c>
-      <c r="I50" s="42" t="n">
-        <v>-0.6071850626329474</v>
+        <v>2013</v>
+      </c>
+      <c r="I50" s="58" t="n">
+        <v>-0.2675187307183782</v>
       </c>
       <c r="J50" t="n">
         <v>605</v>
@@ -2764,10 +3148,3782 @@
         <v>197</v>
       </c>
       <c r="L50" t="n">
-        <v>2818</v>
-      </c>
-      <c r="M50" s="42" t="n">
-        <v>-0.5986733001658375</v>
+        <v>1465</v>
+      </c>
+      <c r="M50" s="36" t="n">
+        <v>-0.2719614921780987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8.240418118466899</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.78961038961039</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7.459346991037132</v>
+      </c>
+      <c r="E55" s="36" t="n">
+        <v>0.01427038368396749</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.556620209059234</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.880519480519481</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.274967989756722</v>
+      </c>
+      <c r="I55" s="59" t="n">
+        <v>-0.362355034948343</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.474738675958188</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.342857142857143</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.346670934699104</v>
+      </c>
+      <c r="M55" s="60" t="n">
+        <v>-0.200581405015365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3493031358885018</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.3124199743918054</v>
+      </c>
+      <c r="E57" s="36" t="n">
+        <v>0.06612340548371987</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2273519163763066</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.225974025974026</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2263124199743918</v>
+      </c>
+      <c r="I57" s="63" t="n">
+        <v>0.005344813725572273</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1454703832752613</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1662337662337662</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.1430857874519846</v>
+      </c>
+      <c r="M57" s="64" t="n">
+        <v>-0.05941682934761994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.67073170731707</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35.1038961038961</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16.80921895006402</v>
+      </c>
+      <c r="E58" s="36" t="n">
+        <v>-0.1265894299060112</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.747386759581881</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13.12467532467532</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.55921895006402</v>
+      </c>
+      <c r="I58" s="36" t="n">
+        <v>-0.4309018408526146</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.465156794425087</v>
+      </c>
+      <c r="K58" t="n">
+        <v>7.07012987012987</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9081306017925737</v>
+      </c>
+      <c r="M58" s="36" t="n">
+        <v>-0.6327127198763811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3388501742160279</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.3298701298701299</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3217029449423816</v>
+      </c>
+      <c r="E60" s="36" t="n">
+        <v>0.04009876194939799</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.08623693379790941</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.07266325224071703</v>
+      </c>
+      <c r="I60" s="65" t="n">
+        <v>0.1862799699897357</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.05052264808362369</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0380921895006402</v>
+      </c>
+      <c r="M60" s="66" t="n">
+        <v>0.1222237362038425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="n">
+        <v>39.87369337979094</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41.70649350649351</v>
+      </c>
+      <c r="D61" t="n">
+        <v>40.52848911651729</v>
+      </c>
+      <c r="E61" s="36" t="n">
+        <v>-0.0302498496878485</v>
+      </c>
+      <c r="F61" t="n">
+        <v>24.77003484320558</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25.07272727272727</v>
+      </c>
+      <c r="H61" t="n">
+        <v>27.46350832266325</v>
+      </c>
+      <c r="I61" s="17" t="n">
+        <v>-0.05703046430761494</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15.3301393728223</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13.74025974025974</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14.66805377720871</v>
+      </c>
+      <c r="M61" s="67" t="n">
+        <v>0.07927134522756529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13</v>
+      </c>
+      <c r="E62" s="36" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" s="68" t="n">
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9792207792207792</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9612676056338029</v>
+      </c>
+      <c r="E63" s="36" t="n">
+        <v>0.005530116760448456</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6550522648083623</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.6597402597402597</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.6174775928297055</v>
+      </c>
+      <c r="I63" s="69" t="n">
+        <v>0.02574868256076002</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5583623693379791</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.5160051216389244</v>
+      </c>
+      <c r="M63" s="70" t="n">
+        <v>0.01721719256580778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6.824912891986063</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10.97662337662338</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7.90044814340589</v>
+      </c>
+      <c r="E64" s="36" t="n">
+        <v>-0.2769097807629133</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.199477351916376</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.212987012987013</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.138924455825864</v>
+      </c>
+      <c r="I64" s="28" t="n">
+        <v>-0.10189967774589</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.023519163763066</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.755844155844156</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.699743918053777</v>
+      </c>
+      <c r="M64" s="71" t="n">
+        <v>0.1711576267136026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2264808362369338</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2025974025974026</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1927016645326504</v>
+      </c>
+      <c r="E66" s="36" t="n">
+        <v>0.145870835877393</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1168831168831169</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.09475032010243278</v>
+      </c>
+      <c r="I66" s="72" t="n">
+        <v>0.1524759154246687</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.08623693379790941</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.07532467532467532</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.06562099871959026</v>
+      </c>
+      <c r="M66" s="73" t="n">
+        <v>0.2236903953621978</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12.39808362369338</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.99220779220779</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.60467349551857</v>
+      </c>
+      <c r="E67" s="36" t="n">
+        <v>-0.1014866140539297</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.141114982578397</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8.212987012987012</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7.173175416133162</v>
+      </c>
+      <c r="I67" s="74" t="n">
+        <v>-0.07174839529017674</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.392857142857143</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.210389610389611</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.348591549295775</v>
+      </c>
+      <c r="M67" s="73" t="n">
+        <v>0.2206758920007437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5087108013937283</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4389610389610389</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3876440460947503</v>
+      </c>
+      <c r="E69" s="36" t="n">
+        <v>0.2308436291784832</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.4120209059233449</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2333546734955186</v>
+      </c>
+      <c r="I69" s="27" t="n">
+        <v>0.3509368274580864</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.3327526132404181</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.3116883116883117</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.1562099871959027</v>
+      </c>
+      <c r="M69" s="27" t="n">
+        <v>0.4223288010831634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7282229965156795</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5540973111395646</v>
+      </c>
+      <c r="E70" s="36" t="n">
+        <v>0.03203269419687516</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.4712543554006969</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5532467532467532</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.2989756722151088</v>
+      </c>
+      <c r="I70" s="75" t="n">
+        <v>0.1059421609218991</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1794425087108014</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.238961038961039</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.1248399487836108</v>
+      </c>
+      <c r="M70" s="31" t="n">
+        <v>-0.01351280092317231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1890243902439024</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1766233766233766</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1469270166453265</v>
+      </c>
+      <c r="E72" s="36" t="n">
+        <v>0.1684386369261548</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.102787456445993</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.1064935064935065</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.07586427656850192</v>
+      </c>
+      <c r="I72" s="76" t="n">
+        <v>0.1273163636897416</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.06097560975609756</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.06233766233766234</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.04737516005121639</v>
+      </c>
+      <c r="M72" s="77" t="n">
+        <v>0.1115493782480339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.178571428571428</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.475324675324675</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.713188220230474</v>
+      </c>
+      <c r="E73" s="36" t="n">
+        <v>0.02724886647789404</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.090592334494774</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.148051948051948</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.279449423815621</v>
+      </c>
+      <c r="I73" s="17" t="n">
+        <v>-0.05563334309575219</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.399825783972126</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.288311688311688</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.7167093469910372</v>
+      </c>
+      <c r="M73" s="78" t="n">
+        <v>0.3963202972190012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.436411149825784</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4103896103896104</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.3565941101152369</v>
+      </c>
+      <c r="E75" s="36" t="n">
+        <v>0.1379932537251967</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3240418118466899</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3688311688311688</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.2234314980793854</v>
+      </c>
+      <c r="I75" s="32" t="n">
+        <v>0.09425033840813724</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.2979094076655052</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.3012987012987013</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.1501280409731114</v>
+      </c>
+      <c r="M75" s="79" t="n">
+        <v>0.3198571540811743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1148</v>
+      </c>
+      <c r="C76" t="n">
+        <v>385</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3124</v>
+      </c>
+      <c r="E76" s="36" t="n">
+        <v>-0.3456825306355087</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1148</v>
+      </c>
+      <c r="G76" t="n">
+        <v>385</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3124</v>
+      </c>
+      <c r="I76" s="80" t="n">
+        <v>-0.3456825306355087</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1148</v>
+      </c>
+      <c r="K76" t="n">
+        <v>385</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3124</v>
+      </c>
+      <c r="M76" s="6" t="n">
+        <v>-0.3456825306355087</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.525641025641026</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9.169398907103826</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7.876731301939058</v>
+      </c>
+      <c r="E81" s="36" t="n">
+        <v>0.0003022294313128615</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10.26013513513514</v>
+      </c>
+      <c r="G81" t="n">
+        <v>12.95652173913044</v>
+      </c>
+      <c r="H81" t="n">
+        <v>29.28294036061027</v>
+      </c>
+      <c r="I81" s="36" t="n">
+        <v>-0.5141919605459123</v>
+      </c>
+      <c r="J81" t="n">
+        <v>7.433333333333334</v>
+      </c>
+      <c r="K81" t="n">
+        <v>12.53125</v>
+      </c>
+      <c r="L81" t="n">
+        <v>7.481409001956947</v>
+      </c>
+      <c r="M81" s="5" t="n">
+        <v>-0.2571368619625747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="81" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3507326007326007</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3442622950819672</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3272160664819945</v>
+      </c>
+      <c r="E83" s="36" t="n">
+        <v>0.04465793928399475</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.5492371705963939</v>
+      </c>
+      <c r="I83" s="82" t="n">
+        <v>-0.05669875851476847</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4476190476190476</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="M83" s="8" t="n">
+        <v>-0.09858784893267647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>23.41483516483516</v>
+      </c>
+      <c r="C84" t="n">
+        <v>36.73770491803279</v>
+      </c>
+      <c r="D84" t="n">
+        <v>17.53531855955679</v>
+      </c>
+      <c r="E84" s="36" t="n">
+        <v>-0.1371464619249149</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17.58783783783784</v>
+      </c>
+      <c r="G84" t="n">
+        <v>47.92391304347826</v>
+      </c>
+      <c r="H84" t="n">
+        <v>11.52011095700416</v>
+      </c>
+      <c r="I84" s="83" t="n">
+        <v>-0.4082554761873084</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7.904761904761905</v>
+      </c>
+      <c r="K84" t="n">
+        <v>42.46875</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.493150684931507</v>
+      </c>
+      <c r="M84" s="84" t="n">
+        <v>-0.6703732841327785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3424908424908425</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.3306010928961748</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3365650969529086</v>
+      </c>
+      <c r="E86" s="36" t="n">
+        <v>0.02670323437198086</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2995839112343966</v>
+      </c>
+      <c r="I86" s="77" t="n">
+        <v>0.1141478627107091</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.2309197651663405</v>
+      </c>
+      <c r="M86" s="86" t="n">
+        <v>0.01049379139872153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="n">
+        <v>39.77747252747253</v>
+      </c>
+      <c r="C87" t="n">
+        <v>42.59836065573771</v>
+      </c>
+      <c r="D87" t="n">
+        <v>41.89092797783933</v>
+      </c>
+      <c r="E87" s="36" t="n">
+        <v>-0.05840200170262799</v>
+      </c>
+      <c r="F87" t="n">
+        <v>71.05405405405405</v>
+      </c>
+      <c r="G87" t="n">
+        <v>74.55434782608695</v>
+      </c>
+      <c r="H87" t="n">
+        <v>91.23162274618585</v>
+      </c>
+      <c r="I87" s="87" t="n">
+        <v>-0.1428218707676628</v>
+      </c>
+      <c r="J87" t="n">
+        <v>65.44761904761904</v>
+      </c>
+      <c r="K87" t="n">
+        <v>63.40625</v>
+      </c>
+      <c r="L87" t="n">
+        <v>68.14872798434442</v>
+      </c>
+      <c r="M87" s="88" t="n">
+        <v>-0.005014936714784368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15</v>
+      </c>
+      <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13</v>
+      </c>
+      <c r="E88" s="36" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>31</v>
+      </c>
+      <c r="I88" s="87" t="n">
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20</v>
+      </c>
+      <c r="K88" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>20</v>
+      </c>
+      <c r="M88" s="13" t="n">
+        <v>-0.1752577319587629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9771062271062271</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9836065573770492</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9795706371191135</v>
+      </c>
+      <c r="E89" s="36" t="n">
+        <v>-0.004566444796140434</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.8804347826086957</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8945908460471568</v>
+      </c>
+      <c r="I89" s="41" t="n">
+        <v>0.00493410066116251</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8806262230919765</v>
+      </c>
+      <c r="M89" s="54" t="n">
+        <v>-0.05711402623612505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.075091575091575</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.50273224043716</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.485457063711911</v>
+      </c>
+      <c r="E90" s="36" t="n">
+        <v>-0.2920727868408814</v>
+      </c>
+      <c r="F90" t="n">
+        <v>14.52364864864865</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20.64130434782609</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16.99722607489598</v>
+      </c>
+      <c r="I90" s="44" t="n">
+        <v>-0.2282563380912001</v>
+      </c>
+      <c r="J90" t="n">
+        <v>10.90952380952381</v>
+      </c>
+      <c r="K90" t="n">
+        <v>10.15625</v>
+      </c>
+      <c r="L90" t="n">
+        <v>10.37964774951076</v>
+      </c>
+      <c r="M90" s="89" t="n">
+        <v>0.06248326151543226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.228021978021978</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2103825136612022</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.2029085872576177</v>
+      </c>
+      <c r="E92" s="36" t="n">
+        <v>0.1034448964182604</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.4459459459459459</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3855755894590846</v>
+      </c>
+      <c r="I92" s="35" t="n">
+        <v>0.03247771331540972</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4476190476190476</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.3953033268101761</v>
+      </c>
+      <c r="M92" s="90" t="n">
+        <v>0.07496940324080881</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="n">
+        <v>12.80769230769231</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15.62295081967213</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13.40373961218837</v>
+      </c>
+      <c r="E93" s="36" t="n">
+        <v>-0.1175230715497463</v>
+      </c>
+      <c r="F93" t="n">
+        <v>22.53716216216216</v>
+      </c>
+      <c r="G93" t="n">
+        <v>29.6304347826087</v>
+      </c>
+      <c r="H93" t="n">
+        <v>28.17614424410541</v>
+      </c>
+      <c r="I93" s="57" t="n">
+        <v>-0.2202561527902531</v>
+      </c>
+      <c r="J93" t="n">
+        <v>15.93333333333333</v>
+      </c>
+      <c r="K93" t="n">
+        <v>15.953125</v>
+      </c>
+      <c r="L93" t="n">
+        <v>13.31115459882583</v>
+      </c>
+      <c r="M93" s="64" t="n">
+        <v>0.08892708460676579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="91" t="n">
+        <v>0.06666666666666665</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4480874316939891</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.4006232686980609</v>
+      </c>
+      <c r="E95" s="36" t="n">
+        <v>0.1847317407804938</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9324324324324325</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.5922330097087378</v>
+      </c>
+      <c r="I95" s="27" t="n">
+        <v>0.3782139650178957</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.8238095238095238</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.5088062622309197</v>
+      </c>
+      <c r="M95" s="92" t="n">
+        <v>0.2928269232307237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7298534798534798</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.8825136612021858</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5782548476454293</v>
+      </c>
+      <c r="E96" s="36" t="n">
+        <v>-0.000726705931997973</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.152027027027027</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.195652173913043</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.085991678224688</v>
+      </c>
+      <c r="I96" s="31" t="n">
+        <v>0.009821954419102719</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.09375</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.6712328767123288</v>
+      </c>
+      <c r="M96" s="74" t="n">
+        <v>-0.08268366769458213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1877289377289377</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1830601092896175</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1547783933518005</v>
+      </c>
+      <c r="E98" s="36" t="n">
+        <v>0.1113531244139649</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.3378378378378378</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2829403606102635</v>
+      </c>
+      <c r="I98" s="41" t="n">
+        <v>0.002122326243603201</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.280952380952381</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.238747553816047</v>
+      </c>
+      <c r="M98" s="93" t="n">
+        <v>0.0490685239101063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.258241758241758</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.628415300546448</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.830678670360111</v>
+      </c>
+      <c r="E99" s="36" t="n">
+        <v>0.008885076736064645</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6</v>
+      </c>
+      <c r="G99" t="n">
+        <v>6.391304347826087</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8.521497919556172</v>
+      </c>
+      <c r="I99" s="18" t="n">
+        <v>-0.195322261715575</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.40952380952381</v>
+      </c>
+      <c r="K99" t="n">
+        <v>4.734375</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3.506849315068493</v>
+      </c>
+      <c r="M99" s="94" t="n">
+        <v>0.3127961581224965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" s="95" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4304029304029304</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.4180327868852459</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="E101" s="36" t="n">
+        <v>0.09454085866592732</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5769764216366158</v>
+      </c>
+      <c r="I101" s="96" t="n">
+        <v>-0.01429181759078657</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.4911937377690802</v>
+      </c>
+      <c r="M101" s="61" t="n">
+        <v>0.09570120505975388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C102" t="n">
+        <v>366</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2888</v>
+      </c>
+      <c r="E102" s="36" t="n">
+        <v>-0.3288260602335586</v>
+      </c>
+      <c r="F102" t="n">
+        <v>296</v>
+      </c>
+      <c r="G102" t="n">
+        <v>92</v>
+      </c>
+      <c r="H102" t="n">
+        <v>721</v>
+      </c>
+      <c r="I102" s="6" t="n">
+        <v>-0.2718327183271833</v>
+      </c>
+      <c r="J102" t="n">
+        <v>210</v>
+      </c>
+      <c r="K102" t="n">
+        <v>64</v>
+      </c>
+      <c r="L102" t="n">
+        <v>511</v>
+      </c>
+      <c r="M102" s="25" t="n">
+        <v>-0.2695652173913043</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.370941990420436</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.025525525525526</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.239487384861834</v>
+      </c>
+      <c r="E107" s="97" t="n">
+        <v>0.2105379038974038</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.389568919638105</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.039039039039039</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.255706848217861</v>
+      </c>
+      <c r="I107" s="98" t="n">
+        <v>-0.1564940258290962</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.9654071314529005</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.489489489489489</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.8782539046856227</v>
+      </c>
+      <c r="M107" s="99" t="n">
+        <v>-0.1845339880766644</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.2139435870143694</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.2012012012012012</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.197837404885863</v>
+      </c>
+      <c r="E109" s="102" t="n">
+        <v>0.07229518021968073</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1522086216072379</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.1426426426426426</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.1381657989587505</v>
+      </c>
+      <c r="I109" s="103" t="n">
+        <v>0.08407440131944188</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.1000532197977648</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0990990990990991</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.09030837004405286</v>
+      </c>
+      <c r="M109" s="25" t="n">
+        <v>0.05648652875611471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="n">
+        <v>56.76104310803619</v>
+      </c>
+      <c r="C110" t="n">
+        <v>36.71921921921922</v>
+      </c>
+      <c r="D110" t="n">
+        <v>50.93572286744093</v>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>0.2951019476327832</v>
+      </c>
+      <c r="F110" t="n">
+        <v>23.02288451303885</v>
+      </c>
+      <c r="G110" t="n">
+        <v>27.02852852852853</v>
+      </c>
+      <c r="H110" t="n">
+        <v>19.00861033239888</v>
+      </c>
+      <c r="I110" s="101" t="n">
+        <v>0.0001874609361882662</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.701969132517297</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12.43393393393393</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9.13115738886664</v>
+      </c>
+      <c r="M110" s="104" t="n">
+        <v>-0.1002153445777907</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="105" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5699840340606706</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.56006006006006</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.539447336804165</v>
+      </c>
+      <c r="E112" s="104" t="n">
+        <v>0.03679890774042005</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.156998403406067</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1381381381381381</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.1423708450140168</v>
+      </c>
+      <c r="I112" s="100" t="n">
+        <v>0.1193823573265549</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.1085683874401277</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1156156156156156</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.09791750100120145</v>
+      </c>
+      <c r="M112" s="57" t="n">
+        <v>0.01687634368164592</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.248536455561469</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.303303303303303</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.396075290348418</v>
+      </c>
+      <c r="E113" s="56" t="n">
+        <v>-0.04304945398569771</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.5806279936136243</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.6051051051051051</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.7124549459351222</v>
+      </c>
+      <c r="I113" s="106" t="n">
+        <v>-0.1186314534123701</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.408728046833422</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.4204204204204204</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.4831798157789347</v>
+      </c>
+      <c r="M113" s="107" t="n">
+        <v>-0.09533435149911329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8642895156998404</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8834601521826192</v>
+      </c>
+      <c r="E115" s="108" t="n">
+        <v>-0.02634576777656117</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1905268759978712</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.1831831831831832</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.2026431718061674</v>
+      </c>
+      <c r="I115" s="99" t="n">
+        <v>-0.01236982111742957</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.153805215540181</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.1291291291291291</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.1585903083700441</v>
+      </c>
+      <c r="M115" s="37" t="n">
+        <v>0.06913329788935751</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.762639701969133</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.51951951951952</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.813376051261514</v>
+      </c>
+      <c r="E116" s="109" t="n">
+        <v>0.1430935769000008</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.411921234699308</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.618618618618619</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2.993392070484581</v>
+      </c>
+      <c r="I116" s="21" t="n">
+        <v>0.3345172723239218</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.995742416178818</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3.252252252252252</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1.665198237885463</v>
+      </c>
+      <c r="M116" s="110" t="n">
+        <v>-0.1883019787666731</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1857370941990421</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1486486486486487</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1343612334801762</v>
+      </c>
+      <c r="E118" s="111" t="n">
+        <v>0.3125838066283166</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.1378392762107504</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.08558558558558559</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.09671605927112535</v>
+      </c>
+      <c r="I118" s="68" t="n">
+        <v>0.5122109986346206</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.08887706226716338</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.06756756756756757</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.065879054865839</v>
+      </c>
+      <c r="M118" s="50" t="n">
+        <v>0.3320241553736649</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.939861628525811</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.195195195195195</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.28994793752503</v>
+      </c>
+      <c r="E119" s="111" t="n">
+        <v>0.3109332485194491</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.782331027142097</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.475975975975976</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.067080496595915</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.6651041209711679</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.407663650878127</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2.003003003003003</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.189827793352022</v>
+      </c>
+      <c r="M119" s="112" t="n">
+        <v>-0.1182347323352476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.2549228312932411</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1321321321321321</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.08490188225871045</v>
+      </c>
+      <c r="E121" s="27" t="n">
+        <v>1.349150956901778</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2841937200638637</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.1171171171171171</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.07488986784140969</v>
+      </c>
+      <c r="I121" s="27" t="n">
+        <v>1.960243557027356</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1106971793507185</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.07507507507507508</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.052663195835002</v>
+      </c>
+      <c r="M121" s="27" t="n">
+        <v>0.7331873770022312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.408195848855774</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.442942942942943</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.234080897076492</v>
+      </c>
+      <c r="E122" s="16" t="n">
+        <v>0.05206074582103914</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.7530601383714742</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8693693693693694</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.6932318782539046</v>
+      </c>
+      <c r="I122" s="113" t="n">
+        <v>-0.03614547919133781</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.5141032464076637</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.7687687687687688</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.421305566680016</v>
+      </c>
+      <c r="M122" s="108" t="n">
+        <v>-0.1360149007603092</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1362426822778073</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.09671605927112535</v>
+      </c>
+      <c r="E124" s="111" t="n">
+        <v>0.3111152120026397</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1245343267695583</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.07357357357357357</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.08329995995194234</v>
+      </c>
+      <c r="I124" s="43" t="n">
+        <v>0.5877034700605175</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.07876530069185737</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.05855855855855856</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.06107328794553464</v>
+      </c>
+      <c r="M124" s="35" t="n">
+        <v>0.3167948668110281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.08408728046833422</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.04804804804804805</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.04004805766920305</v>
+      </c>
+      <c r="E125" s="114" t="n">
+        <v>0.9089897285180026</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.08728046833422033</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.07657657657657657</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.03143772527032439</v>
+      </c>
+      <c r="I125" s="87" t="n">
+        <v>0.6160909591015331</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02607770090473656</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.03453453453453453</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.03163796555867041</v>
+      </c>
+      <c r="M125" s="58" t="n">
+        <v>-0.2118266389208285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.05215540180947312</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.03153153153153153</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02703243892671205</v>
+      </c>
+      <c r="E127" s="115" t="n">
+        <v>0.781142958763706</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.05215540180947312</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.04804804804804805</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.02062474969963957</v>
+      </c>
+      <c r="I127" s="5" t="n">
+        <v>0.5189537493753653</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.01809473124002129</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.02402402402402402</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.01521826191429716</v>
+      </c>
+      <c r="M127" s="116" t="n">
+        <v>-0.0777942310261146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1879</v>
+      </c>
+      <c r="C128" t="n">
+        <v>666</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4994</v>
+      </c>
+      <c r="E128" s="36" t="n">
+        <v>-0.3360424028268552</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1879</v>
+      </c>
+      <c r="G128" t="n">
+        <v>666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4994</v>
+      </c>
+      <c r="I128" s="36" t="n">
+        <v>-0.3360424028268552</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1879</v>
+      </c>
+      <c r="K128" t="n">
+        <v>666</v>
+      </c>
+      <c r="L128" t="n">
+        <v>4994</v>
+      </c>
+      <c r="M128" s="36" t="n">
+        <v>-0.3360424028268552</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.444821731748727</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.087237479806139</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.329632048769867</v>
+      </c>
+      <c r="E133" s="117" t="n">
+        <v>0.1956141733476198</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4.614953271028037</v>
+      </c>
+      <c r="G133" t="n">
+        <v>8.030487804878049</v>
+      </c>
+      <c r="H133" t="n">
+        <v>4.635448916408668</v>
+      </c>
+      <c r="I133" s="36" t="n">
+        <v>-0.2712811736581596</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.435443037974683</v>
+      </c>
+      <c r="K133" t="n">
+        <v>7.270676691729324</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4.39622641509434</v>
+      </c>
+      <c r="M133" s="118" t="n">
+        <v>-0.2396537457518595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2190152801358234</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2084006462035541</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.209013716525147</v>
+      </c>
+      <c r="E135" s="16" t="n">
+        <v>0.04939024476343978</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.388785046728972</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.3963414634146342</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.4009287925696595</v>
+      </c>
+      <c r="I135" s="36" t="n">
+        <v>-0.02470951647635256</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.3569620253164557</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.4060150375939849</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.3689727463312369</v>
+      </c>
+      <c r="M135" s="120" t="n">
+        <v>-0.07879315591663882</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="n">
+        <v>59.66553480475382</v>
+      </c>
+      <c r="C136" t="n">
+        <v>38.62197092084006</v>
+      </c>
+      <c r="D136" t="n">
+        <v>54.69409971696059</v>
+      </c>
+      <c r="E136" s="68" t="n">
+        <v>0.2787836949616347</v>
+      </c>
+      <c r="F136" t="n">
+        <v>78.77943925233645</v>
+      </c>
+      <c r="G136" t="n">
+        <v>109.6158536585366</v>
+      </c>
+      <c r="H136" t="n">
+        <v>72.95201238390094</v>
+      </c>
+      <c r="I136" s="36" t="n">
+        <v>-0.1369846078605713</v>
+      </c>
+      <c r="J136" t="n">
+        <v>46.03291139240506</v>
+      </c>
+      <c r="K136" t="n">
+        <v>61.66917293233082</v>
+      </c>
+      <c r="L136" t="n">
+        <v>46.9769392033543</v>
+      </c>
+      <c r="M136" s="106" t="n">
+        <v>-0.1526082160231222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" s="36" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5744199207696661</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5702746365105008</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5628129762682342</v>
+      </c>
+      <c r="E138" s="112" t="n">
+        <v>0.01390203950951951</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5271028037383177</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5365853658536586</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.5301857585139319</v>
+      </c>
+      <c r="I138" s="36" t="n">
+        <v>-0.01177901857664576</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.4968553459119497</v>
+      </c>
+      <c r="M138" s="56" t="n">
+        <v>-0.05207013658962412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.271080928126768</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.264943457189014</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.475288482473329</v>
+      </c>
+      <c r="E139" s="56" t="n">
+        <v>-0.04178489279216901</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.603738317757009</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.99390243902439</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.21671826625387</v>
+      </c>
+      <c r="I139" s="36" t="n">
+        <v>-0.238241375792111</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.539240506329114</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.729323308270677</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.968553459119497</v>
+      </c>
+      <c r="M139" s="98" t="n">
+        <v>-0.1675003775664198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8670062252405206</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.8949919224555735</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9072501632919661</v>
+      </c>
+      <c r="E141" s="56" t="n">
+        <v>-0.03785819663521928</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.3962616822429906</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.4390243902439024</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.4620743034055728</v>
+      </c>
+      <c r="I141" s="36" t="n">
+        <v>-0.1204921613233737</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.4354430379746835</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.3759398496240601</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.4612159329140461</v>
+      </c>
+      <c r="M141" s="29" t="n">
+        <v>0.04029153726800616</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.053763440860215</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.833602584814217</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.097757456999783</v>
+      </c>
+      <c r="E142" s="40" t="n">
+        <v>0.1316895561706128</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15.43551401869159</v>
+      </c>
+      <c r="G142" t="n">
+        <v>14.65243902439024</v>
+      </c>
+      <c r="H142" t="n">
+        <v>11.55030959752322</v>
+      </c>
+      <c r="I142" s="36" t="n">
+        <v>0.1781599130239953</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9.483544303797469</v>
+      </c>
+      <c r="K142" t="n">
+        <v>16.27067669172932</v>
+      </c>
+      <c r="L142" t="n">
+        <v>8.59853249475891</v>
+      </c>
+      <c r="M142" s="121" t="n">
+        <v>-0.2373264278182193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.1912846632710809</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.1534733441033926</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1432614848682778</v>
+      </c>
+      <c r="E144" s="14" t="n">
+        <v>0.2892633057870204</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.4691588785046729</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.3668730650154799</v>
+      </c>
+      <c r="I144" s="36" t="n">
+        <v>0.324678008216488</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.4177215189873418</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.3308270676691729</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.3343815513626834</v>
+      </c>
+      <c r="M144" s="87" t="n">
+        <v>0.2559113247669371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.111488398415393</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.350565428109855</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.440888308295232</v>
+      </c>
+      <c r="E145" s="37" t="n">
+        <v>0.2987659151436861</v>
+      </c>
+      <c r="F145" t="n">
+        <v>13.08785046728972</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9.957317073170731</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7.94969040247678</v>
+      </c>
+      <c r="I145" s="36" t="n">
+        <v>0.4617574136927607</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6.635443037974683</v>
+      </c>
+      <c r="K145" t="n">
+        <v>9.924812030075188</v>
+      </c>
+      <c r="L145" t="n">
+        <v>6.132075471698113</v>
+      </c>
+      <c r="M145" s="98" t="n">
+        <v>-0.1735081861610011</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" s="119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.2591963780418789</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1340872374798061</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.09122577835837144</v>
+      </c>
+      <c r="E147" s="27" t="n">
+        <v>1.300767020295328</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.8598130841121495</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.2623839009287925</v>
+      </c>
+      <c r="I147" s="36" t="n">
+        <v>1.634926307690769</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.4734177215189874</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.3007518796992481</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.2463312368972746</v>
+      </c>
+      <c r="M147" s="122" t="n">
+        <v>0.7306976112301997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.488398415393322</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.536348949919225</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.336381450032658</v>
+      </c>
+      <c r="E148" s="104" t="n">
+        <v>0.03622561686836479</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.594392523364486</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3.518292682926829</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2.671826625386997</v>
+      </c>
+      <c r="I148" s="36" t="n">
+        <v>-0.161763321789288</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.437974683544304</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3.849624060150376</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2.163522012578616</v>
+      </c>
+      <c r="M148" s="123" t="n">
+        <v>-0.189118423515077</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" s="119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.1386530843237125</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.1147011308562197</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1040714130198128</v>
+      </c>
+      <c r="E150" s="25" t="n">
+        <v>0.2675547110909891</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4224299065420561</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.3173374613003096</v>
+      </c>
+      <c r="I150" s="36" t="n">
+        <v>0.3849697969515256</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.369620253164557</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.2932330827067669</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.3102725366876311</v>
+      </c>
+      <c r="M150" s="105" t="n">
+        <v>0.2249107258867322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0865874363327674</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.04523424878836833</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.04332680165469192</v>
+      </c>
+      <c r="E151" s="122" t="n">
+        <v>0.9554292976332348</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.2224299065420561</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.2378048780487805</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.1114551083591331</v>
+      </c>
+      <c r="I151" s="36" t="n">
+        <v>0.2737210971672661</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.1139240506329114</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.1353383458646616</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.1572327044025157</v>
+      </c>
+      <c r="M151" s="124" t="n">
+        <v>-0.2212213031407216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" s="119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.03069466882067851</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.02917483126496843</v>
+      </c>
+      <c r="E153" s="115" t="n">
+        <v>0.7582100693032601</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1252336448598131</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.1280487804878049</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.07043343653250773</v>
+      </c>
+      <c r="I153" s="36" t="n">
+        <v>0.2619129989564428</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0759493670886076</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.08270676691729323</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.07127882599580712</v>
+      </c>
+      <c r="M153" s="112" t="n">
+        <v>-0.01355229860408336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1767</v>
+      </c>
+      <c r="C154" t="n">
+        <v>619</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4593</v>
+      </c>
+      <c r="E154" s="36" t="n">
+        <v>-0.3219493476592479</v>
+      </c>
+      <c r="F154" t="n">
+        <v>535</v>
+      </c>
+      <c r="G154" t="n">
+        <v>164</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1292</v>
+      </c>
+      <c r="I154" s="36" t="n">
+        <v>-0.2651098901098901</v>
+      </c>
+      <c r="J154" t="n">
+        <v>395</v>
+      </c>
+      <c r="K154" t="n">
+        <v>133</v>
+      </c>
+      <c r="L154" t="n">
+        <v>954</v>
+      </c>
+      <c r="M154" s="36" t="n">
+        <v>-0.2732290708371665</v>
       </c>
     </row>
   </sheetData>
